--- a/doc/Results/CullingResults_CLUSTERS.xlsx
+++ b/doc/Results/CullingResults_CLUSTERS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="18075" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="18075" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="500 Primitives" sheetId="1" r:id="rId1"/>
@@ -108,6 +108,1276 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Culling</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time / Number of Frustums (500 Primitives)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'500 Primitives'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t BVH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'500 Primitives'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'500 Primitives'!$E$2:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>6.6879840000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1260600000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.66657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.757070000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.28392</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.073600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.10331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.137700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.839689999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.407679999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.99408</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.21791</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.14448</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.175920000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.676110000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.088190000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.018740000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.986600000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'500 Primitives'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t Bruteforce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'500 Primitives'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'500 Primitives'!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>15.112500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.998059999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.544309999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.288220000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.203749999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.509700000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.068560000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.894649999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.558130000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.954139999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>117.179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>136.9837</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>156.05549999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>174.04740000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>195.4041</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>381.07690000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>569.07249999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="80578816"/>
+        <c:axId val="80577280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="80578816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Frustums</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80577280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="80577280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Culling Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80578816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Culling</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time / Number of Frustums (1000 Primitives)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1000 Primitives'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t BVH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1000 Primitives'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1000 Primitives'!$E$2:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>12.09469</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.03279</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.80409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.26446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.578610000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.73531</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.072700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.363880000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.368670000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.86983</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.64687</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.24708</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.298680000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.586569999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.931519999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.520139999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82.852800000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86.24539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1000 Primitives'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t Bruteforce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1000 Primitives'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1000 Primitives'!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>22.624929999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.89331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.154209999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.127170000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.964020000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114.4941</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>132.92259999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>151.47620000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169.03749999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190.39160000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>233.90539999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>269.42610000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>309.75069999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>340.29399999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>378.86180000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="83030400"/>
+        <c:axId val="83024512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="83030400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Frustums</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83024512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83024512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Culling Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83030400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Culling Time / Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Frustums (2500 Primitives)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2500 primitives'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t BVH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2500 primitives'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2500 primitives'!$E$2:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>19.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.473120000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.528659999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.764980000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.356179999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.962340000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.004980000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.742420000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.814259999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.519030000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.6006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.424860000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.159559999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.425260000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.661180000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>107.3323</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>156.28899999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>197.6617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2500 primitives'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t Bruteforce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2500 primitives'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2500 primitives'!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>48.686459999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.47049999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188.60040000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>236.38470000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>284.45069999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>329.26960000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>378.42570000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>423.1386</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>474.5172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>560.2894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="55863552"/>
+        <c:axId val="55862016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="55863552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Frustums</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55862016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="55862016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Culling Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55863552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,7 +1668,7 @@
   <dimension ref="D1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -657,6 +1927,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -664,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -917,6 +2188,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -924,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1166,5 +2438,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>